--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/Documents/coding/SendMessage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131FB8DA-8952-7B46-8B75-0BA0C9FF7456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4149434-8A4F-104B-8742-7CEF9532C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{8E438C4A-807D-5F43-B8EF-AF100ADC9CA4}"/>
   </bookViews>
@@ -395,7 +395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB377B60-72A6-1F4D-92BA-210BE787701F}">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
